--- a/Data/Excels/Syncolon/150_160/FarPoints_67.xlsx
+++ b/Data/Excels/Syncolon/150_160/FarPoints_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>84,00</t>
+          <t>90,00</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,11 @@
       <c r="A13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>838,00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -494,11 +498,7 @@
       <c r="A16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>804,00</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -531,17 +531,17 @@
       <c r="A27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>744,00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>730,00</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -559,11 +559,7 @@
       <c r="A35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>686,00</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -590,7 +586,11 @@
       <c r="A44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>716,00</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -638,7 +638,11 @@
       <c r="A60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr"/>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>622,00</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -659,7 +663,11 @@
       <c r="A67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>578,00</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -671,48 +679,10 @@
       <c r="A71" t="inlineStr"/>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>676,00</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>578,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A73" t="inlineStr">
         <is>
           <t>232,00</t>
         </is>
